--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.16250000000001</v>
+        <v>16.1669</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.385699999999997</v>
+        <v>-7.379400000000001</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.14850000000003</v>
+        <v>18.06590000000003</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.88240000000001</v>
+        <v>16.80510000000001</v>
       </c>
     </row>
     <row r="15">
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.376699999999994</v>
+        <v>-8.576499999999992</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.481500000000002</v>
+        <v>-7.420899999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0714</v>
+        <v>16.2256</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.298300000000001</v>
+        <v>-8.385499999999997</v>
       </c>
       <c r="E27" t="n">
-        <v>16.7327</v>
+        <v>16.77289999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.00280000000001</v>
+        <v>16.95280000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.0136</v>
+        <v>-7.891699999999999</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.73040000000001</v>
+        <v>16.65760000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4526</v>
+        <v>16.63719999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.27510000000001</v>
+        <v>17.2412</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.06400000000001</v>
+        <v>16.8604</v>
       </c>
     </row>
     <row r="53">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.50090000000001</v>
+        <v>16.4071</v>
       </c>
     </row>
     <row r="56">
@@ -1610,10 +1610,10 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-8.108599999999997</v>
+        <v>-7.248799999999997</v>
       </c>
       <c r="E69" t="n">
-        <v>16.594</v>
+        <v>17.16090000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.11860000000002</v>
+        <v>18.03670000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.603199999999998</v>
+        <v>-7.690599999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.735300000000003</v>
+        <v>-7.690500000000006</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.6458</v>
+        <v>16.55579999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.29699999999999</v>
+        <v>-8.317199999999991</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,10 +1848,10 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.018400000000003</v>
+        <v>-8.953300000000002</v>
       </c>
       <c r="E83" t="n">
-        <v>16.42009999999999</v>
+        <v>16.68869999999998</v>
       </c>
     </row>
     <row r="84">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.476099999999997</v>
+        <v>-6.351199999999997</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8311</v>
+        <v>16.8931</v>
       </c>
     </row>
   </sheetData>
